--- a/doc/画面設計書.xlsx
+++ b/doc/画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\S2L\S2L\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\S2L_project\S2L\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67E85E-10F9-422B-8DE7-FDEF399564F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02999E8A-C60B-4DC5-8B03-CFAAEC7AAD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB80DAF5-264A-4F6E-8050-3E5D944BF807}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB80DAF5-264A-4F6E-8050-3E5D944BF807}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>■home画面</t>
     <rPh sb="5" eb="7">
@@ -45,6 +45,64 @@
   </si>
   <si>
     <t>S2L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isComplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tynyInt(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todoItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyymmdd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0(未完了),1(完了)</t>
+    <rPh sb="2" eb="5">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -83,12 +141,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,11 +170,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3388,7 +3464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC52FA92-3E54-4CD5-8890-2785A01786DC}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -3408,7 +3484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FFCF7B-67F4-493E-AEA2-C933FB3F4855}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -3428,14 +3504,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F008C5C5-506D-4FDE-A553-63136B6CAFB6}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
